--- a/process mining/hw2/q3_footprint.xlsx
+++ b/process mining/hw2/q3_footprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/BlackDisk/year_3/process mining/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F6574F-9627-9E48-9053-9E50887AD164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D14C0-D04E-C64A-9179-3166B28F39A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{F437E605-4CEC-914B-A64B-8B43F5E5289C}"/>
   </bookViews>
@@ -91,15 +91,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,19 +119,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +489,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +536,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -516,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
@@ -526,7 +556,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -536,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -569,10 +599,10 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -584,5 +614,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>